--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\tweets_politics_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED17F40-113A-411A-B5C3-94384422E10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99267EBE-6534-4A0C-A2F5-8A6ABEC63388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="2880" windowWidth="15090" windowHeight="9615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TWEET2WORD NET – STATS" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="Total-DataSets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="118">
   <si>
     <t>politics?</t>
   </si>
@@ -95,14 +95,307 @@
   </si>
   <si>
     <t>2014-ottawashooting.jsonl</t>
+  </si>
+  <si>
+    <t>file type</t>
+  </si>
+  <si>
+    <t>file name</t>
+  </si>
+  <si>
+    <t>file source</t>
+  </si>
+  <si>
+    <t>file size</t>
+  </si>
+  <si>
+    <t>file subject</t>
+  </si>
+  <si>
+    <t>disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aggregative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dallas Police Shooting Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> digital libary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24170KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dorian Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10816KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17777KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harvey Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22526KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Imelda Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 354KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notre Dam Fire Disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40179KB</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> original</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18761KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China Politics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 759418KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China Politics 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 807932KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ecuador Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 402335KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Egypt Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 169600KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iran Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 699663KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 601661KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spain Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34156KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezuela Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 604522KB</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>hashtag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1371KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 490KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1485KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2649KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 570KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa 2016 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16068KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bangladesh 2019 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catalonia 2006 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6210KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China 2019 Politics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China 2019 Politics 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ecuador 2019 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Egypt 2019 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa 2011 Politics 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218818KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa 2011 Politics 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 907758KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iran 2018 Politics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia 2019 Politics</t>
+  </si>
+  <si>
+    <t>processed file - number of distinct records</t>
+  </si>
+  <si>
+    <t>file distinct number of records</t>
+  </si>
+  <si>
+    <t>Mexican Elections Politics</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Twitter_event_datasets_2012-2016_/5100460</t>
+  </si>
+  <si>
+    <t>Dallas Police Shooting Politics</t>
+  </si>
+  <si>
+    <t>1.03GB</t>
+  </si>
+  <si>
+    <t>453MB</t>
+  </si>
+  <si>
+    <t>Dorian Disaster</t>
+  </si>
+  <si>
+    <t>Notre Dam Fire Disaster</t>
+  </si>
+  <si>
+    <t>Imelda Disaster</t>
+  </si>
+  <si>
+    <t>Harvey Disaster</t>
+  </si>
+  <si>
+    <t>Florence Disaster</t>
+  </si>
+  <si>
+    <t>Patricia Disaster</t>
+  </si>
+  <si>
+    <t>Nepal EarthQuake Disaster</t>
+  </si>
+  <si>
+    <t>Hagupit Disaster</t>
+  </si>
+  <si>
+    <t>Ottawa Shooting Disaster</t>
+  </si>
+  <si>
+    <t>Boston Marathon Bombing Disaster</t>
+  </si>
+  <si>
+    <t>Sandy Disaster</t>
+  </si>
+  <si>
+    <t>3.08GB</t>
+  </si>
+  <si>
+    <t>1.86GB</t>
+  </si>
+  <si>
+    <t>365MB</t>
+  </si>
+  <si>
+    <t>1.19GB</t>
+  </si>
+  <si>
+    <t>1.14GB</t>
+  </si>
+  <si>
+    <t>1.32GB</t>
+  </si>
+  <si>
+    <t>2.30GB</t>
+  </si>
+  <si>
+    <t>639MB</t>
+  </si>
+  <si>
+    <t>577MB</t>
+  </si>
+  <si>
+    <t>2.76GB</t>
+  </si>
+  <si>
+    <t>4.69GB</t>
+  </si>
+  <si>
+    <t>else (mostly for network analysis)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -118,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,12 +419,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,400 +735,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>6.9387669799999996</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>62205</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>215813</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-0.82399999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7.5777293549999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>705</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>383195</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1451874</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-0.81599999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8.5367111470000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>98</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>376575</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>1607356</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>-0.84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8.7483235399999995</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1781</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>306151</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1339154</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>-0.83299999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>10.01191961</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>28860</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>144472</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>-0.80200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>11.06993836</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>91981</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>509112</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>-0.85799999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>11.17745714</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>68</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>288588</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1612840</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>-0.82899999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>11.556397710000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>98</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>186559</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>1077975</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>-0.86399999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>11.918053029999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>105</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>268808</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1601834</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>-0.874</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>12.84498786</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>157278</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1010117</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>-0.88300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>14.554917489999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>267128</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1944013</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>-0.89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>15.576402679999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>130964</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1019974</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>-0.89700000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>17.73664604</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>96638</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>857017</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>-0.89300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>17.84311915</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>181947</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>1623251</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>-0.91400000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>20.064799239999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>156329</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1568355</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>-0.91100000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>23.27453873</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>137609</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>1601393</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>-0.91800000000000004</v>
       </c>
     </row>
@@ -818,12 +1144,1225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E931228F-DEDF-49F4-A2EF-1899D2F2F9AE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2287421</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1079699</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1709988</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2137670</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40502</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3745399</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1">
+        <v>26212</v>
+      </c>
+      <c r="G8" s="1">
+        <v>26212</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1898108</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1898108</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1708078</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1708078</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1">
+        <v>700240</v>
+      </c>
+      <c r="G11" s="1">
+        <v>700240</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1">
+        <v>214898</v>
+      </c>
+      <c r="G12" s="1">
+        <v>214898</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1122936</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1122936</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1">
+        <v>920761</v>
+      </c>
+      <c r="G14" s="1">
+        <v>920761</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1">
+        <v>56712</v>
+      </c>
+      <c r="G15" s="1">
+        <v>56712</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1">
+        <v>984980</v>
+      </c>
+      <c r="G16" s="1">
+        <v>984980</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>89922</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>35044</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1">
+        <v>101083</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>133106</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2339</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40578</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7151</v>
+      </c>
+      <c r="G23" s="1">
+        <v>11463</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1">
+        <v>983</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1724</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1">
+        <v>875</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1478</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1">
+        <v>26487</v>
+      </c>
+      <c r="G26" s="1">
+        <v>350472</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1">
+        <v>78028</v>
+      </c>
+      <c r="G27" s="1">
+        <v>293545</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1">
+        <v>36280</v>
+      </c>
+      <c r="G28" s="1">
+        <v>116707</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>35486</v>
+      </c>
+      <c r="G29" s="1">
+        <v>157474</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1">
+        <v>22241</v>
+      </c>
+      <c r="G30" s="1">
+        <v>133823</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1">
+        <v>53757</v>
+      </c>
+      <c r="G31" s="1">
+        <v>454174</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1">
+        <v>111799</v>
+      </c>
+      <c r="G32" s="1">
+        <v>276560</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1">
+        <v>92814</v>
+      </c>
+      <c r="G33" s="1">
+        <v>339224</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="5">
+        <v>122687</v>
+      </c>
+      <c r="G34" s="5">
+        <v>122687</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5">
+        <v>218515</v>
+      </c>
+      <c r="G35" s="5">
+        <v>218515</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="5">
+        <v>494685</v>
+      </c>
+      <c r="G36" s="5">
+        <v>494685</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="5">
+        <v>339776</v>
+      </c>
+      <c r="G37" s="5">
+        <v>339776</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="5">
+        <v>58445</v>
+      </c>
+      <c r="G38" s="5">
+        <v>58445</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="5">
+        <v>213010</v>
+      </c>
+      <c r="G39" s="5">
+        <v>213010</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5">
+        <v>200130</v>
+      </c>
+      <c r="G40" s="5">
+        <v>200130</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="5">
+        <v>281649</v>
+      </c>
+      <c r="G41" s="5">
+        <v>281649</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="5">
+        <v>447912</v>
+      </c>
+      <c r="G42" s="5">
+        <v>447912</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="5">
+        <v>157271</v>
+      </c>
+      <c r="G43" s="5">
+        <v>157271</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="5">
+        <v>646356</v>
+      </c>
+      <c r="G44" s="5">
+        <v>646356</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="5">
+        <v>159602</v>
+      </c>
+      <c r="G45" s="5">
+        <v>159602</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1552857</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1552857</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\tweets_politics_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99267EBE-6534-4A0C-A2F5-8A6ABEC63388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E47A8F-ABCB-4DF0-98E7-F2E6F0AB6A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14655" yWindow="2745" windowWidth="15090" windowHeight="9615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TWEET2WORD NET – STATS" sheetId="1" r:id="rId1"/>
     <sheet name="Total-DataSets" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Total-DataSets'!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="130">
   <si>
     <t>politics?</t>
   </si>
@@ -100,12 +103,6 @@
     <t>file type</t>
   </si>
   <si>
-    <t>file name</t>
-  </si>
-  <si>
-    <t>file source</t>
-  </si>
-  <si>
     <t>file size</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>disaster</t>
   </si>
   <si>
-    <t xml:space="preserve"> aggregative</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dallas Police Shooting Disaster</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>politics</t>
   </si>
   <si>
-    <t xml:space="preserve"> original</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bangladesh Politics</t>
   </si>
   <si>
@@ -380,13 +371,61 @@
   </si>
   <si>
     <t>else (mostly for network analysis)</t>
+  </si>
+  <si>
+    <t>Chech Politics</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Source Of Data</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Original Tweets</t>
+  </si>
+  <si>
+    <t>Aggregative</t>
+  </si>
+  <si>
+    <t>453 MB</t>
+  </si>
+  <si>
+    <t>Personal Extraction</t>
+  </si>
+  <si>
+    <t>134 MB</t>
+  </si>
+  <si>
+    <t>https://data.world/alexfilatov/2016-usa-presidential-election-tweets - Twitter_ data_USA_elections_2016</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/mohdazfar/pakistan-elections-2018 - Twitter_ data_Pakistan_elections_2018.json</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/taniaj/australian-election-2019-tweets - Twitter_ data_australian_elections_2019.csv</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/paultimothymooney/twitter-election-data-archives - archive_from_countries</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>users/hashtag/network</t>
+  </si>
+  <si>
+    <t>network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +437,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +508,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,13 +799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
@@ -1144,228 +1209,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E931228F-DEDF-49F4-A2EF-1899D2F2F9AE}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1">
-        <v>2287421</v>
+        <v>983</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1724</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1">
-        <v>1079699</v>
+        <v>26212</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>26212</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1">
-        <v>1709988</v>
+        <v>875</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1">
-        <v>2137670</v>
+        <v>26487</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>350472</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1">
-        <v>40502</v>
+        <v>78028</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>293545</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1">
-        <v>3745399</v>
+        <v>1898108</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1898108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1">
-        <v>26212</v>
+        <v>1708078</v>
       </c>
       <c r="G8" s="1">
-        <v>26212</v>
+        <v>1708078</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
@@ -1373,567 +1439,567 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>1898108</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1898108</v>
+        <v>2287421</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1">
-        <v>1708078</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1708078</v>
+        <v>89922</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1">
-        <v>700240</v>
-      </c>
-      <c r="G11" s="1">
-        <v>700240</v>
+        <v>1079699</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1">
-        <v>214898</v>
-      </c>
-      <c r="G12" s="1">
-        <v>214898</v>
+        <v>35044</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
-        <v>1122936</v>
+        <v>36280</v>
       </c>
       <c r="G13" s="1">
-        <v>1122936</v>
+        <v>116707</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
-        <v>920761</v>
+        <v>700240</v>
       </c>
       <c r="G14" s="1">
-        <v>920761</v>
+        <v>700240</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1">
-        <v>56712</v>
+        <v>35486</v>
       </c>
       <c r="G15" s="1">
-        <v>56712</v>
+        <v>157474</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>214898</v>
+      </c>
+      <c r="G16" s="1">
+        <v>214898</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1709988</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>101083</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2137670</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1">
-        <v>984980</v>
-      </c>
-      <c r="G16" s="1">
-        <v>984980</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1">
-        <v>89922</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="1">
-        <v>35044</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="1">
-        <v>101083</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F20" s="1">
         <v>133106</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
+      <c r="G20" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1">
+        <v>40502</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2339</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1">
+        <v>111799</v>
+      </c>
+      <c r="G23" s="1">
+        <v>276560</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1122936</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1122936</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3745399</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2339</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="F26" s="1">
         <v>40578</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1">
-        <v>7151</v>
-      </c>
-      <c r="G23" s="1">
-        <v>11463</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1">
-        <v>983</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1724</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="1">
-        <v>875</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1478</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="1">
+        <v>92814</v>
+      </c>
+      <c r="G27" s="1">
+        <v>339224</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="1">
+        <v>920761</v>
+      </c>
+      <c r="G28" s="1">
+        <v>920761</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1">
+        <v>56712</v>
+      </c>
+      <c r="G29" s="1">
+        <v>56712</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="1">
-        <v>26487</v>
-      </c>
-      <c r="G26" s="1">
-        <v>350472</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="1">
-        <v>78028</v>
-      </c>
-      <c r="G27" s="1">
-        <v>293545</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1">
-        <v>36280</v>
-      </c>
-      <c r="G28" s="1">
-        <v>116707</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="1">
-        <v>35486</v>
-      </c>
-      <c r="G29" s="1">
-        <v>157474</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1">
         <v>22241</v>
@@ -1942,24 +2008,24 @@
         <v>133823</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1">
         <v>53757</v>
@@ -1968,400 +2034,478 @@
         <v>454174</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1">
-        <v>111799</v>
+        <v>7151</v>
       </c>
       <c r="G32" s="1">
-        <v>276560</v>
+        <v>11463</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1">
-        <v>92814</v>
+        <v>984980</v>
       </c>
       <c r="G33" s="1">
-        <v>339224</v>
+        <v>984980</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>117</v>
+      <c r="A34" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="5">
+        <v>159602</v>
+      </c>
+      <c r="G34" s="5">
+        <v>159602</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>179898</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5">
+        <v>205919</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="5">
+        <v>218515</v>
+      </c>
+      <c r="G37" s="5">
+        <v>218515</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5">
+        <v>494685</v>
+      </c>
+      <c r="G38" s="5">
+        <v>494685</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="5">
+        <v>200130</v>
+      </c>
+      <c r="G39" s="5">
+        <v>200130</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="5">
+        <v>157271</v>
+      </c>
+      <c r="G40" s="5">
+        <v>157271</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="5">
+        <v>213010</v>
+      </c>
+      <c r="G41" s="5">
+        <v>213010</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="5">
+        <v>58445</v>
+      </c>
+      <c r="G42" s="5">
+        <v>58445</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="5">
+        <v>122687</v>
+      </c>
+      <c r="G43" s="5">
+        <v>122687</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="5">
-        <v>122687</v>
-      </c>
-      <c r="G34" s="5">
-        <v>122687</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="5">
+        <v>281649</v>
+      </c>
+      <c r="G44" s="5">
+        <v>281649</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="5">
-        <v>218515</v>
-      </c>
-      <c r="G35" s="5">
-        <v>218515</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="5">
-        <v>494685</v>
-      </c>
-      <c r="G36" s="5">
-        <v>494685</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="F45" s="5">
+        <v>339776</v>
+      </c>
+      <c r="G45" s="5">
+        <v>339776</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="5">
+        <v>646356</v>
+      </c>
+      <c r="G46" s="5">
+        <v>646356</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="5">
-        <v>339776</v>
-      </c>
-      <c r="G37" s="5">
-        <v>339776</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5">
-        <v>58445</v>
-      </c>
-      <c r="G38" s="5">
-        <v>58445</v>
-      </c>
-      <c r="H38" s="5" t="s">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="5">
+        <v>447912</v>
+      </c>
+      <c r="G47" s="5">
+        <v>447912</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="5">
-        <v>213010</v>
-      </c>
-      <c r="G39" s="5">
-        <v>213010</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="5">
-        <v>200130</v>
-      </c>
-      <c r="G40" s="5">
-        <v>200130</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="5" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="5">
-        <v>281649</v>
-      </c>
-      <c r="G41" s="5">
-        <v>281649</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="5">
-        <v>447912</v>
-      </c>
-      <c r="G42" s="5">
-        <v>447912</v>
-      </c>
-      <c r="H42" s="5" t="s">
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1552857</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1552857</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="5">
-        <v>157271</v>
-      </c>
-      <c r="G43" s="5">
-        <v>157271</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="5">
-        <v>646356</v>
-      </c>
-      <c r="G44" s="5">
-        <v>646356</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="5">
-        <v>159602</v>
-      </c>
-      <c r="G45" s="5">
-        <v>159602</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1552857</v>
-      </c>
-      <c r="G46" s="5">
-        <v>1552857</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>116</v>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1" xr:uid="{E27D84D1-1DC8-408E-9A8F-873AEE124933}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L48">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
